--- a/数据整理/stocks/A股/上证主板/600690-海尔智家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600690-海尔智家.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29096,7 +29097,6 @@
           <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr">
         <is>
           <t>87.40</t>
@@ -29128,7 +29128,6 @@
           <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr"/>
       <c r="E412" t="inlineStr">
         <is>
           <t>91.39</t>
@@ -29160,7 +29159,6 @@
           <t>新疆前海联合润丰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
           <t>88.29</t>
@@ -29192,7 +29190,6 @@
           <t>广发聚优灵活配置混合H</t>
         </is>
       </c>
-      <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
           <t>88.28</t>
@@ -29224,7 +29221,6 @@
           <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
           <t>94.48</t>
@@ -29256,7 +29252,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -29288,7 +29283,6 @@
           <t>人保量化基本面混合C</t>
         </is>
       </c>
-      <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
           <t>85.21</t>
@@ -29320,7 +29314,6 @@
           <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -29352,7 +29345,6 @@
           <t>中欧睿达定期开放混合C</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
           <t>22.09</t>
@@ -29384,7 +29376,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -29416,7 +29407,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -29448,7 +29438,6 @@
           <t>光大阳光优选一年持有混合B</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -29480,7 +29469,6 @@
           <t>光大阳光优选一年持有混合C</t>
         </is>
       </c>
-      <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -29496,6 +29484,7576 @@
       </c>
       <c r="H423" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.7651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>360.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>22.7299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>196.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>19.1054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4923</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4913</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4134</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3608</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3433</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3244</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3190</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2270</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1533</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9704</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>199.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8675</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8112</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7696</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7540</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7181</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6661</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>52.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6367</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6344</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6253</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6133</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5024</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4710</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004513</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>501027</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国泰融信灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000526</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>501017</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰融丰外延增长灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004512</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002059</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>56.66</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010832</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国泰合益混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007266</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010833</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>国泰合益混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007267</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600690-海尔智家.xlsx
+++ b/数据整理/stocks/A股/上证主板/600690-海尔智家.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47670,4 +47671,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>278</v>
+      </c>
+      <c r="D2" t="n">
+        <v>128.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>198</v>
+      </c>
+      <c r="D3" t="n">
+        <v>137.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>422</v>
+      </c>
+      <c r="D4" t="n">
+        <v>197.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>342</v>
+      </c>
+      <c r="D5" t="n">
+        <v>171.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>